--- a/data/Behavioral/description/Quotient_Ext.xlsx
+++ b/data/Behavioral/description/Quotient_Ext.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_Jan_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="2260" windowWidth="25600" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="5360" yWindow="2120" windowWidth="25600" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,117 +62,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>System_Index</t>
-  </si>
-  <si>
-    <t>Act_Sev_10</t>
-  </si>
-  <si>
-    <t>Inatt_Sev_10</t>
-  </si>
-  <si>
-    <t>ADHD_Severity_10</t>
-  </si>
-  <si>
-    <t>Acc</t>
-  </si>
-  <si>
-    <t>Om_Err</t>
-  </si>
-  <si>
-    <t>Comm_Err</t>
-  </si>
-  <si>
-    <t>Latency</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>COV</t>
-  </si>
-  <si>
-    <t>Attentive</t>
-  </si>
-  <si>
-    <t>Impulsive</t>
-  </si>
-  <si>
-    <t>Distracted</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Minimal</t>
-  </si>
-  <si>
-    <t>Contrary</t>
-  </si>
-  <si>
-    <t>Immobility_Head</t>
-  </si>
-  <si>
-    <t>TmpSc_Head</t>
-  </si>
-  <si>
-    <t>Acc_perc</t>
-  </si>
-  <si>
-    <t>Om_Err_perc</t>
-  </si>
-  <si>
-    <t>Comm_Err_perc</t>
-  </si>
-  <si>
-    <t>Latency_perc</t>
-  </si>
-  <si>
-    <t>Variability_perc</t>
-  </si>
-  <si>
-    <t>COV_perc</t>
-  </si>
-  <si>
-    <t>Num_Shifts_perc</t>
-  </si>
-  <si>
-    <t>Attentive_perc</t>
-  </si>
-  <si>
-    <t>Impulsive_perc</t>
-  </si>
-  <si>
-    <t>Distracted_perc</t>
-  </si>
-  <si>
-    <t>Random_perc</t>
-  </si>
-  <si>
-    <t>Minimal_perc</t>
-  </si>
-  <si>
-    <t>Contrary_perc</t>
-  </si>
-  <si>
-    <t>Immobility_Head_perc</t>
-  </si>
-  <si>
-    <t>Mvmts_Head_perc</t>
-  </si>
-  <si>
-    <t>Disp_Head_perc</t>
-  </si>
-  <si>
-    <t>Area_Head_perc</t>
-  </si>
-  <si>
-    <t>SpCompl_Head_perc</t>
-  </si>
-  <si>
-    <t>TmpS_Head_perc</t>
-  </si>
-  <si>
     <t>M, F</t>
   </si>
   <si>
@@ -185,18 +74,6 @@
     <t>ADHD Severity * 10</t>
   </si>
   <si>
-    <t>Movements_Head</t>
-  </si>
-  <si>
-    <t>Displacement_Head</t>
-  </si>
-  <si>
-    <t>Area_Head</t>
-  </si>
-  <si>
-    <t>SpCompl_Head</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -240,9 +117,6 @@
   </si>
   <si>
     <t>Number of Shifts (number)</t>
-  </si>
-  <si>
-    <t>Num_Shifts</t>
   </si>
   <si>
     <t>Attentive (percent)</t>
@@ -386,6 +260,132 @@
   </si>
   <si>
     <t>Global Scaled Score - demonstrates the combination of indices for this patient as compared to the community sample. High scaled scores are associated with the scores that patients with ADHD receive.</t>
+  </si>
+  <si>
+    <t>Quotient_System_Index</t>
+  </si>
+  <si>
+    <t>Quotient_Act_Sev_10</t>
+  </si>
+  <si>
+    <t>Quotient_Inatt_Sev_10</t>
+  </si>
+  <si>
+    <t>Quotient_ADHD_Severity_10</t>
+  </si>
+  <si>
+    <t>Quotient_Acc</t>
+  </si>
+  <si>
+    <t>Quotient_Om_Err</t>
+  </si>
+  <si>
+    <t>Quotient_Comm_Err</t>
+  </si>
+  <si>
+    <t>Quotient_Latency</t>
+  </si>
+  <si>
+    <t>Quotient_Var</t>
+  </si>
+  <si>
+    <t>Quotient_COV</t>
+  </si>
+  <si>
+    <t>Quotient_Num_Shifts</t>
+  </si>
+  <si>
+    <t>Quotient_Attentive</t>
+  </si>
+  <si>
+    <t>Quotient_Impulsive</t>
+  </si>
+  <si>
+    <t>Quotient_Distracted</t>
+  </si>
+  <si>
+    <t>Quotient_Random</t>
+  </si>
+  <si>
+    <t>Quotient_Minimal</t>
+  </si>
+  <si>
+    <t>Quotient_Contrary</t>
+  </si>
+  <si>
+    <t>Quotient_Immobility_Head</t>
+  </si>
+  <si>
+    <t>Quotient_Movements_Head</t>
+  </si>
+  <si>
+    <t>Quotient_Displacement_Head</t>
+  </si>
+  <si>
+    <t>Quotient_Area_Head</t>
+  </si>
+  <si>
+    <t>Quotient_SpCompl_Head</t>
+  </si>
+  <si>
+    <t>Quotient_TmpSc_Head</t>
+  </si>
+  <si>
+    <t>Quotient_Acc_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Om_Err_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Comm_Err_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Latency_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Variability_perc</t>
+  </si>
+  <si>
+    <t>Quotient_COV_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Num_Shifts_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Attentive_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Impulsive_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Distracted_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Random_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Minimal_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Contrary_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Immobility_Head_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Mvmts_Head_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Disp_Head_perc</t>
+  </si>
+  <si>
+    <t>Quotient_Area_Head_perc</t>
+  </si>
+  <si>
+    <t>Quotient_SpCompl_Head_perc</t>
+  </si>
+  <si>
+    <t>Quotient_TmpS_Head_perc</t>
   </si>
 </sst>
 </file>
@@ -436,18 +436,21 @@
       <sz val="16"/>
       <color rgb="FF0067A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0067A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -872,7 +875,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -931,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -940,329 +943,329 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>2</v>
@@ -1271,10 +1274,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>2</v>
@@ -1282,10 +1285,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>2</v>
@@ -1293,10 +1296,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>2</v>
@@ -1304,10 +1307,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>2</v>
@@ -1315,10 +1318,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>2</v>
@@ -1326,10 +1329,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>2</v>
@@ -1337,10 +1340,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>2</v>
@@ -1348,10 +1351,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>2</v>
@@ -1359,10 +1362,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>2</v>
@@ -1370,10 +1373,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>2</v>
@@ -1381,10 +1384,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>2</v>
@@ -1392,10 +1395,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>2</v>
@@ -1403,10 +1406,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>2</v>
@@ -1414,10 +1417,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>2</v>
@@ -1425,10 +1428,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>2</v>
@@ -1436,10 +1439,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>2</v>
@@ -1447,10 +1450,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -1458,10 +1461,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>2</v>
